--- a/data/trans_dic/Predimed_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R2-Dificultad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9143525810339639</v>
+        <v>0.9143525810339642</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8641250626711959</v>
+        <v>0.864125062671196</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.8860804028514692</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8855580031280247</v>
+        <v>0.8849058100021784</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.837809489369709</v>
+        <v>0.8384507120361336</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8678745402013132</v>
+        <v>0.8656252924479331</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9384690103762017</v>
+        <v>0.9381198268674668</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8874931664433109</v>
+        <v>0.8863863991888284</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9030143812716361</v>
+        <v>0.9025582603044616</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8662476972381878</v>
+        <v>0.8662476972381877</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.8678131719679685</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8380094847626411</v>
+        <v>0.840891327136195</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8509018710790927</v>
+        <v>0.8510942010066741</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8517069784558509</v>
+        <v>0.8518402548831394</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8882463201511483</v>
+        <v>0.8900455844445595</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8839586947757124</v>
+        <v>0.8848497408301756</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8813726620295808</v>
+        <v>0.8814487417027315</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8478653499775316</v>
+        <v>0.8478653499775317</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.8353438754614545</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8415683305379241</v>
+        <v>0.8415683305379239</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8188189786128701</v>
+        <v>0.8201717640812622</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.813233140111651</v>
+        <v>0.8122941813965783</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.825761803673611</v>
+        <v>0.8251346906019691</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8717991943856606</v>
+        <v>0.8719062945845512</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8545894387324197</v>
+        <v>0.8551924638021502</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8573642545063138</v>
+        <v>0.8574861405987972</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.7195665259118653</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6861784194988981</v>
+        <v>0.6861784194988979</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.703469390376565</v>
+        <v>0.7034693903765649</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6857782385872203</v>
+        <v>0.6821203081264832</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6577032635139769</v>
+        <v>0.6590236094354915</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6803119974440347</v>
+        <v>0.680523038646549</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7482010127259529</v>
+        <v>0.751231583664429</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7147248065398547</v>
+        <v>0.7125897049056171</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7238442200478852</v>
+        <v>0.7241379041113613</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8253383766363857</v>
+        <v>0.8253383766363858</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8127141976643343</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8108823084946881</v>
+        <v>0.8104448738553756</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8004831668843847</v>
+        <v>0.8015534958408199</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8086630774833442</v>
+        <v>0.8074979128685803</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8397553374722638</v>
+        <v>0.8388523493530121</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8237520752794365</v>
+        <v>0.8242431265697761</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8276143653392591</v>
+        <v>0.8274454875375916</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>396646</v>
+        <v>396354</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>483227</v>
+        <v>483597</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>889293</v>
+        <v>886988</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>420345</v>
+        <v>420189</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>511883</v>
+        <v>511245</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>925300</v>
+        <v>924832</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>737955</v>
+        <v>740492</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>881088</v>
+        <v>881287</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1631938</v>
+        <v>1632193</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>782193</v>
+        <v>783778</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>915317</v>
+        <v>916240</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1688780</v>
+        <v>1688925</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>813637</v>
+        <v>814981</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>817507</v>
+        <v>816563</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1650637</v>
+        <v>1649383</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>866282</v>
+        <v>866388</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>859080</v>
+        <v>859687</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1713808</v>
+        <v>1714051</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>637199</v>
+        <v>633800</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>568919</v>
+        <v>570061</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1220597</v>
+        <v>1220975</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>695200</v>
+        <v>698016</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>618243</v>
+        <v>616397</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1298701</v>
+        <v>1299228</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2636456</v>
+        <v>2635033</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2787693</v>
+        <v>2791420</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5445420</v>
+        <v>5437574</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2730332</v>
+        <v>2727396</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2868727</v>
+        <v>2870437</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5573035</v>
+        <v>5571898</v>
       </c>
     </row>
     <row r="24">
